--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>34.32305788681484</v>
+        <v>34.32219813181192</v>
       </c>
       <c r="G2" t="n">
-        <v>33.93432621956148</v>
+        <v>33.93347625483653</v>
       </c>
       <c r="H2" t="n">
-        <v>34.70773405873302</v>
+        <v>34.70490756899319</v>
       </c>
       <c r="I2" t="n">
-        <v>3.833078652400965</v>
+        <v>3.833097380741688</v>
       </c>
       <c r="J2" t="n">
-        <v>3.806173822307815</v>
+        <v>3.805469405110184</v>
       </c>
       <c r="K2" t="n">
-        <v>3.860513714237095</v>
+        <v>3.86051984770603</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2688352239597531</v>
+        <v>0.2688359171456197</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2668197502776208</v>
+        <v>0.2667845704221329</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2708774962252137</v>
+        <v>0.2708811391434666</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002083114710414742</v>
+        <v>0.0002084971397132102</v>
       </c>
       <c r="G3" t="n">
-        <v>1.010517213799665e-07</v>
+        <v>7.575429228818257e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005868575269910738</v>
+        <v>0.0005872800645465599</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001955734884076082</v>
+        <v>0.0001957429104065394</v>
       </c>
       <c r="J3" t="n">
-        <v>9.558445450809713e-08</v>
+        <v>7.245286614021769e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005509830028284841</v>
+        <v>0.000551300869807884</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002089980129103502</v>
+        <v>0.0002091858909706858</v>
       </c>
       <c r="M3" t="n">
-        <v>1.016158287030416e-07</v>
+        <v>7.605071481457858e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0005890211120699057</v>
+        <v>0.0005894172111076503</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>34.32326619828588</v>
+        <v>34.32240662895164</v>
       </c>
       <c r="G4" t="n">
-        <v>33.9343263206132</v>
+        <v>33.93347633059082</v>
       </c>
       <c r="H4" t="n">
-        <v>34.70832091626001</v>
+        <v>34.70549484905773</v>
       </c>
       <c r="I4" t="n">
-        <v>3.833274225889372</v>
+        <v>3.833293123652094</v>
       </c>
       <c r="J4" t="n">
-        <v>3.806173917892269</v>
+        <v>3.80546947756305</v>
       </c>
       <c r="K4" t="n">
-        <v>3.861064697239923</v>
+        <v>3.861071148575839</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2690442219726635</v>
+        <v>0.2690451030365905</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2668198518934495</v>
+        <v>0.2667846464728477</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2714665173372836</v>
+        <v>0.2714705563545743</v>
       </c>
     </row>
   </sheetData>

--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>34.32219813181192</v>
+        <v>34.32326441073354</v>
       </c>
       <c r="G2" t="n">
-        <v>33.93347625483653</v>
+        <v>33.93231324440875</v>
       </c>
       <c r="H2" t="n">
-        <v>34.70490756899319</v>
+        <v>34.71324539606103</v>
       </c>
       <c r="I2" t="n">
-        <v>3.833097380741688</v>
+        <v>3.833116648445406</v>
       </c>
       <c r="J2" t="n">
-        <v>3.805469405110184</v>
+        <v>3.805656843724844</v>
       </c>
       <c r="K2" t="n">
-        <v>3.86051984770603</v>
+        <v>3.86061106235283</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2688359171456197</v>
+        <v>0.2688364430516824</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2667845704221329</v>
+        <v>0.2667919453456743</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2708811391434666</v>
+        <v>0.2708875651108002</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002084971397132102</v>
+        <v>0.0002086230621730263</v>
       </c>
       <c r="G3" t="n">
-        <v>7.575429228818257e-08</v>
+        <v>1.256795025251431e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005872800645465599</v>
+        <v>0.0005862637385339242</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001957429104065394</v>
+        <v>0.0001958438724335321</v>
       </c>
       <c r="J3" t="n">
-        <v>7.245286614021769e-08</v>
+        <v>1.172202137309654e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000551300869807884</v>
+        <v>0.0005503416370005344</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002091858909706858</v>
+        <v>0.000209302570309247</v>
       </c>
       <c r="M3" t="n">
-        <v>7.605071481457858e-08</v>
+        <v>1.254978277096446e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0005894172111076503</v>
+        <v>0.0005883541305949057</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>34.32240662895164</v>
+        <v>34.32347303379571</v>
       </c>
       <c r="G4" t="n">
-        <v>33.93347633059082</v>
+        <v>33.9323132569767</v>
       </c>
       <c r="H4" t="n">
-        <v>34.70549484905773</v>
+        <v>34.71383165979957</v>
       </c>
       <c r="I4" t="n">
-        <v>3.833293123652094</v>
+        <v>3.83331249231784</v>
       </c>
       <c r="J4" t="n">
-        <v>3.80546947756305</v>
+        <v>3.805656855446865</v>
       </c>
       <c r="K4" t="n">
-        <v>3.861071148575839</v>
+        <v>3.86116140398983</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2690451030365905</v>
+        <v>0.2690457456219916</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2667846464728477</v>
+        <v>0.2667919578954571</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2714705563545743</v>
+        <v>0.2714759192413951</v>
       </c>
     </row>
   </sheetData>
